--- a/Ergebnisse_Teil_1/Study_15_10_2025_LHS_Modell_1.1_KS_Holdout_seed_0/metrics/Trial_479__Reeval_LHS_Modell_1.1.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_LHS_Modell_1.1_KS_Holdout_seed_0/metrics/Trial_479__Reeval_LHS_Modell_1.1.xlsx
@@ -5879,37 +5879,37 @@
                   <c:v>16.78878021240234</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11.55823040008545</c:v>
+                  <c:v>11.55822944641113</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>16.3285961151123</c:v>
+                  <c:v>16.32859420776367</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>16.43505477905273</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>16.52015495300293</c:v>
+                  <c:v>16.5201530456543</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>34.65800857543945</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>21.97673225402832</c:v>
+                  <c:v>21.97673416137695</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>23.65717124938965</c:v>
+                  <c:v>23.65716934204102</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>15.73744583129883</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>16.09569358825684</c:v>
+                  <c:v>16.09568977355957</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>38.36008453369141</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>29.66304016113281</c:v>
+                  <c:v>29.66304206848145</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>16.4294319152832</c:v>
@@ -5918,19 +5918,19 @@
                   <c:v>38.70093536376953</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>16.49514389038086</c:v>
+                  <c:v>16.49514579772949</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>16.45262908935547</c:v>
+                  <c:v>16.45262718200684</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>32.3314094543457</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>11.2683744430542</c:v>
+                  <c:v>11.26837158203125</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>16.47743225097656</c:v>
+                  <c:v>16.4774284362793</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>27.42544174194336</c:v>
@@ -5939,13 +5939,13 @@
                   <c:v>17.2974853515625</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>16.563720703125</c:v>
+                  <c:v>16.56371879577637</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>28.40423011779785</c:v>
+                  <c:v>28.40423202514648</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3.412264108657837</c:v>
+                  <c:v>3.412262916564941</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>36.17560195922852</c:v>
@@ -5954,22 +5954,22 @@
                   <c:v>16.29302024841309</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>16.47859001159668</c:v>
+                  <c:v>16.47859191894531</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>16.4710636138916</c:v>
+                  <c:v>16.47106552124023</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>16.42711067199707</c:v>
+                  <c:v>16.4271125793457</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>28.97304534912109</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>16.57155227661133</c:v>
+                  <c:v>16.57155418395996</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>15.09511184692383</c:v>
+                  <c:v>15.09511375427246</c:v>
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>19.84521102905273</c:v>
@@ -5987,40 +5987,40 @@
                   <c:v>35.84915161132812</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>16.49505805969238</c:v>
+                  <c:v>16.49506187438965</c:v>
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>16.45818138122559</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>16.90085983276367</c:v>
+                  <c:v>16.90086364746094</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>43.615478515625</c:v>
+                  <c:v>43.61548233032227</c:v>
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>30.9840030670166</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>17.41668510437012</c:v>
+                  <c:v>17.41668701171875</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>16.49149322509766</c:v>
+                  <c:v>16.49149513244629</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>2.792028427124023</c:v>
+                  <c:v>2.792029619216919</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>11.66154193878174</c:v>
+                  <c:v>11.66154003143311</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>17.55013656616211</c:v>
+                  <c:v>17.55013847351074</c:v>
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>16.49495697021484</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>15.29481983184814</c:v>
+                  <c:v>15.29481792449951</c:v>
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>16.49517822265625</c:v>
@@ -6029,7 +6029,7 @@
                   <c:v>5.673006057739258</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>18.08518218994141</c:v>
+                  <c:v>18.08517646789551</c:v>
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>16.31587409973145</c:v>
@@ -6041,7 +6041,7 @@
                   <c:v>31.09305381774902</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>16.50070953369141</c:v>
+                  <c:v>16.50071334838867</c:v>
                 </c:pt>
                 <c:pt idx="57">
                   <c:v>36.20534515380859</c:v>
@@ -6050,22 +6050,22 @@
                   <c:v>-0.8405086398124695</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>16.00497817993164</c:v>
+                  <c:v>16.00498008728027</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>16.49506378173828</c:v>
+                  <c:v>16.49506187438965</c:v>
                 </c:pt>
                 <c:pt idx="61">
                   <c:v>17.40012168884277</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>11.27079200744629</c:v>
+                  <c:v>11.27079296112061</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>38.28009414672852</c:v>
+                  <c:v>38.28008651733398</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>16.49509620666504</c:v>
+                  <c:v>16.49509429931641</c:v>
                 </c:pt>
                 <c:pt idx="65">
                   <c:v>16.49443054199219</c:v>
@@ -6077,13 +6077,13 @@
                   <c:v>16.50865936279297</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>13.924635887146</c:v>
+                  <c:v>13.92463493347168</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>16.63941955566406</c:v>
+                  <c:v>16.63941764831543</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>16.52762603759766</c:v>
+                  <c:v>16.52762794494629</c:v>
                 </c:pt>
                 <c:pt idx="71">
                   <c:v>16.63108825683594</c:v>
@@ -6101,7 +6101,7 @@
                   <c:v>37.45689010620117</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>14.30987167358398</c:v>
+                  <c:v>14.30986976623535</c:v>
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>11.61821556091309</c:v>
@@ -6116,28 +6116,28 @@
                   <c:v>16.4965934753418</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>19.07574081420898</c:v>
+                  <c:v>19.07573699951172</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>16.49768447875977</c:v>
+                  <c:v>16.49768829345703</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>16.24140739440918</c:v>
+                  <c:v>16.24140548706055</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>16.49508094787598</c:v>
+                  <c:v>16.49508285522461</c:v>
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>35.54181289672852</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>16.49501037597656</c:v>
+                  <c:v>16.49500846862793</c:v>
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>16.24450492858887</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>16.49449729919434</c:v>
+                  <c:v>16.49449920654297</c:v>
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>8.917613983154297</c:v>
@@ -6146,7 +6146,7 @@
                   <c:v>41.69632720947266</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>22.42960166931152</c:v>
+                  <c:v>22.42959976196289</c:v>
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>16.46863746643066</c:v>
@@ -6155,7 +6155,7 @@
                   <c:v>16.0197696685791</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>13.99925231933594</c:v>
+                  <c:v>13.99925422668457</c:v>
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>16.40972328186035</c:v>
@@ -6923,7 +6923,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>11.55823040008545</v>
+        <v>11.55822944641113</v>
       </c>
       <c r="G4">
         <v>78</v>
@@ -6955,7 +6955,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>16.3285961151123</v>
+        <v>16.32859420776367</v>
       </c>
       <c r="G5">
         <v>78</v>
@@ -7019,7 +7019,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>16.52015495300293</v>
+        <v>16.5201530456543</v>
       </c>
       <c r="G7">
         <v>78</v>
@@ -7071,7 +7071,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>21.97673225402832</v>
+        <v>21.97673416137695</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -7091,7 +7091,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>23.65717124938965</v>
+        <v>23.65716934204102</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -7131,7 +7131,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>16.09569358825684</v>
+        <v>16.09568977355957</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -7171,7 +7171,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>29.66304016113281</v>
+        <v>29.66304206848145</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -7231,7 +7231,7 @@
         <v>46.0307</v>
       </c>
       <c r="F17">
-        <v>16.49514389038086</v>
+        <v>16.49514579772949</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -7251,7 +7251,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>16.45262908935547</v>
+        <v>16.45262718200684</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -7291,7 +7291,7 @@
         <v>46.3987</v>
       </c>
       <c r="F20">
-        <v>11.2683744430542</v>
+        <v>11.26837158203125</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -7311,7 +7311,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>16.47743225097656</v>
+        <v>16.4774284362793</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -7371,7 +7371,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>16.563720703125</v>
+        <v>16.56371879577637</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -7391,7 +7391,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>28.40423011779785</v>
+        <v>28.40423202514648</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -7411,7 +7411,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>3.412264108657837</v>
+        <v>3.412262916564941</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -7471,7 +7471,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>16.47859001159668</v>
+        <v>16.47859191894531</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -7491,7 +7491,7 @@
         <v>58.4079</v>
       </c>
       <c r="F30">
-        <v>16.4710636138916</v>
+        <v>16.47106552124023</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -7511,7 +7511,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>16.42711067199707</v>
+        <v>16.4271125793457</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -7551,7 +7551,7 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>16.57155227661133</v>
+        <v>16.57155418395996</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -7571,7 +7571,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>15.09511184692383</v>
+        <v>15.09511375427246</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -7691,7 +7691,7 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>16.49505805969238</v>
+        <v>16.49506187438965</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -7731,7 +7731,7 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>16.90085983276367</v>
+        <v>16.90086364746094</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -7751,7 +7751,7 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>43.615478515625</v>
+        <v>43.61548233032227</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -7791,7 +7791,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>17.41668510437012</v>
+        <v>17.41668701171875</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -7811,7 +7811,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>16.49149322509766</v>
+        <v>16.49149513244629</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -7831,7 +7831,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>2.792028427124023</v>
+        <v>2.792029619216919</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -7851,7 +7851,7 @@
         <v>53.3588</v>
       </c>
       <c r="F48">
-        <v>11.66154193878174</v>
+        <v>11.66154003143311</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -7871,7 +7871,7 @@
         <v>34.9546</v>
       </c>
       <c r="F49">
-        <v>17.55013656616211</v>
+        <v>17.55013847351074</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -7911,7 +7911,7 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>15.29481983184814</v>
+        <v>15.29481792449951</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -7971,7 +7971,7 @@
         <v>55.0076</v>
       </c>
       <c r="F54">
-        <v>18.08518218994141</v>
+        <v>18.08517646789551</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -8051,7 +8051,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>16.50070953369141</v>
+        <v>16.50071334838867</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -8111,7 +8111,7 @@
         <v>50.0149</v>
       </c>
       <c r="F61">
-        <v>16.00497817993164</v>
+        <v>16.00498008728027</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -8131,7 +8131,7 @@
         <v>47.4245</v>
       </c>
       <c r="F62">
-        <v>16.49506378173828</v>
+        <v>16.49506187438965</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -8171,7 +8171,7 @@
         <v>48.9905</v>
       </c>
       <c r="F64">
-        <v>11.27079200744629</v>
+        <v>11.27079296112061</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -8191,7 +8191,7 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>38.28009414672852</v>
+        <v>38.28008651733398</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -8211,7 +8211,7 @@
         <v>53.0738</v>
       </c>
       <c r="F66">
-        <v>16.49509620666504</v>
+        <v>16.49509429931641</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -8291,7 +8291,7 @@
         <v>71.8596</v>
       </c>
       <c r="F70">
-        <v>13.924635887146</v>
+        <v>13.92463493347168</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -8311,7 +8311,7 @@
         <v>42.2746</v>
       </c>
       <c r="F71">
-        <v>16.63941955566406</v>
+        <v>16.63941764831543</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -8331,7 +8331,7 @@
         <v>52.2351</v>
       </c>
       <c r="F72">
-        <v>16.52762603759766</v>
+        <v>16.52762794494629</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -8451,7 +8451,7 @@
         <v>0</v>
       </c>
       <c r="F78">
-        <v>14.30987167358398</v>
+        <v>14.30986976623535</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -8551,7 +8551,7 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>19.07574081420898</v>
+        <v>19.07573699951172</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -8571,7 +8571,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>16.49768447875977</v>
+        <v>16.49768829345703</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -8591,7 +8591,7 @@
         <v>48.0677</v>
       </c>
       <c r="F85">
-        <v>16.24140739440918</v>
+        <v>16.24140548706055</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -8611,7 +8611,7 @@
         <v>51.5452</v>
       </c>
       <c r="F86">
-        <v>16.49508094787598</v>
+        <v>16.49508285522461</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -8651,7 +8651,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>16.49501037597656</v>
+        <v>16.49500846862793</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -8691,7 +8691,7 @@
         <v>54.6848</v>
       </c>
       <c r="F90">
-        <v>16.49449729919434</v>
+        <v>16.49449920654297</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -8751,7 +8751,7 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>22.42960166931152</v>
+        <v>22.42959976196289</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -8811,7 +8811,7 @@
         <v>53.4777</v>
       </c>
       <c r="F96">
-        <v>13.99925231933594</v>
+        <v>13.99925422668457</v>
       </c>
     </row>
     <row r="97" spans="1:6">
